--- a/Relatorio2.xlsx
+++ b/Relatorio2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638C89F7-5EA6-4B56-8B3C-D2CAB89E94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE932F-01D7-494B-BC08-9D346FC0B5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosAnalogico" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="DadosDigitais" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -137,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -178,19 +178,14 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FD64-4CD7-4358-B999-AD72C9756F13}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +514,7 @@
     <col min="1" max="1" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -532,9 +527,6 @@
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -544,15 +536,15 @@
       <c r="B2" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="15">
         <f>AVERAGE(B2:B61)</f>
         <v>0.29849999999999988</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
@@ -565,12 +557,15 @@
       <c r="B3" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <f>_xlfn.STDEV.P(B2:B61)</f>
         <v>4.4752094923031449E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.9</v>
       </c>
       <c r="H3" s="3"/>
       <c r="L3" s="5"/>
@@ -582,13 +577,14 @@
       <c r="B4" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="21">
         <f>F3/SQRT(60)</f>
         <v>5.7774706114931433E-3</v>
       </c>
+      <c r="G4" s="22"/>
       <c r="H4" s="3"/>
       <c r="L4" s="6"/>
     </row>
@@ -599,8 +595,9 @@
       <c r="B5" s="13">
         <v>0.21</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -610,12 +607,13 @@
       <c r="B6" s="13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="11">
         <v>9.7878989999999995</v>
       </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -625,11 +623,12 @@
       <c r="B7" s="13">
         <v>0.21</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="24">
-        <f>(2*C2)/(POWER(F2,2))</f>
+      <c r="E7" s="11"/>
+      <c r="F7" s="23">
+        <f>(2*G3)/(POWER(F2,2))</f>
         <v>20.201510062877219</v>
       </c>
+      <c r="G7" s="22"/>
       <c r="H7" s="3"/>
       <c r="L7" s="7"/>
     </row>
@@ -640,11 +639,12 @@
       <c r="B8" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="23">
-        <f>(2*C2)/(0.45*0.45)</f>
+      <c r="E8" s="11"/>
+      <c r="F8" s="21">
+        <f>(2*G3)/(0.45*0.45)</f>
         <v>8.8888888888888893</v>
       </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1134,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE274979-5883-4EC9-B875-A5D4A6D37BB1}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Relatorio2.xlsx
+++ b/Relatorio2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE932F-01D7-494B-BC08-9D346FC0B5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C21F75D-88A0-4788-9716-4E855A1724CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B734B11A-CBEB-4ACD-A026-634FE6791D70}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosAnalogico" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>T(s)</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Desvio padrão</t>
-  </si>
-  <si>
-    <t>Erro padrão</t>
-  </si>
-  <si>
-    <t>Valor esperado</t>
   </si>
   <si>
     <t>Altura(m)</t>
@@ -50,6 +38,36 @@
   </si>
   <si>
     <t>Medições</t>
+  </si>
+  <si>
+    <t>Valor esperado(g)</t>
+  </si>
+  <si>
+    <t>Média do T(s)</t>
+  </si>
+  <si>
+    <t>Desvio padrão T(s)</t>
+  </si>
+  <si>
+    <t>Erro padrão T</t>
+  </si>
+  <si>
+    <t>Média T(s)</t>
+  </si>
+  <si>
+    <t>Gravidade</t>
+  </si>
+  <si>
+    <t>Tempo Médio(s)</t>
+  </si>
+  <si>
+    <t>DP Amostral T(s)</t>
+  </si>
+  <si>
+    <t>Erro da Média</t>
+  </si>
+  <si>
+    <t>Manual (Celular)(s)</t>
   </si>
 </sst>
 </file>
@@ -168,24 +186,28 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -204,6 +226,151 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>674683</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1012029</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59533</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo: Cantos Arredondados 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E7E8CF-AB84-495F-9F8F-EBAD2969A04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3859605" y="2162970"/>
+          <a:ext cx="1875237" cy="347266"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200"/>
+            <a:t>Incertezas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
+            <a:t> instrumetais</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>797317</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>912812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo: Cantos Arredondados 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4831EFE5-6DC2-45D9-A2BB-303AE5F521BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3982239" y="182166"/>
+          <a:ext cx="1653386" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
+            <a:t>Cálculos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,24 +672,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95FD64-4CD7-4358-B999-AD72C9756F13}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
+      <c r="A1" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -536,16 +703,6 @@
       <c r="B2" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15">
-        <f>AVERAGE(B2:B61)</f>
-        <v>0.29849999999999988</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="L2" s="1"/>
@@ -557,16 +714,6 @@
       <c r="B3" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="20">
-        <f>_xlfn.STDEV.P(B2:B61)</f>
-        <v>4.4752094923031449E-2</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.9</v>
-      </c>
       <c r="H3" s="3"/>
       <c r="L3" s="5"/>
     </row>
@@ -578,13 +725,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="21">
-        <f>F3/SQRT(60)</f>
-        <v>5.7774706114931433E-3</v>
-      </c>
-      <c r="G4" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="19"/>
       <c r="H4" s="3"/>
       <c r="L4" s="6"/>
     </row>
@@ -595,9 +741,14 @@
       <c r="B5" s="13">
         <v>0.21</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="22"/>
+      <c r="E5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14">
+        <f>AVERAGE(B2:B61)</f>
+        <v>0.29849999999999988</v>
+      </c>
+      <c r="G5" s="19"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -608,12 +759,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11">
-        <v>9.7878989999999995</v>
-      </c>
-      <c r="G6" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="F6" s="15">
+        <f>_xlfn.STDEV.S(B2:B61)</f>
+        <v>4.5129756428040561E-2</v>
+      </c>
+      <c r="G6" s="19"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -623,12 +775,14 @@
       <c r="B7" s="13">
         <v>0.21</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="23">
-        <f>(2*G3)/(POWER(F2,2))</f>
-        <v>20.201510062877219</v>
-      </c>
-      <c r="G7" s="22"/>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16">
+        <f>F6/SQRT(60)</f>
+        <v>5.8262265021399402E-3</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="3"/>
       <c r="L7" s="7"/>
     </row>
@@ -639,12 +793,13 @@
       <c r="B8" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="21">
-        <f>(2*G3)/(0.45*0.45)</f>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="G8" s="22"/>
+      <c r="E8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9.7878989999999995</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -654,7 +809,13 @@
       <c r="B9" s="13">
         <v>0.27</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="16">
+        <f>(2*F4)/(0.45*0.45)</f>
+        <v>8.8888888888888893</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
@@ -663,6 +824,13 @@
       <c r="B10" s="13">
         <v>0.28000000000000003</v>
       </c>
+      <c r="E10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="17">
+        <f>(2*F4)/(POWER(F5,2))</f>
+        <v>20.201510062877219</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -672,6 +840,13 @@
       <c r="B11" s="13">
         <v>0.28000000000000003</v>
       </c>
+      <c r="E11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11">
+        <f>SQRT(2*F4/F10)</f>
+        <v>0.29849999999999988</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -708,6 +883,12 @@
       <c r="B15" s="13">
         <v>0.28999999999999998</v>
       </c>
+      <c r="E15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1127,6 +1308,7 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1134,128 +1316,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE274979-5883-4EC9-B875-A5D4A6D37BB1}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
+      <c r="A1" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
         <v>0.9</v>
       </c>
-      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>0.42199999999999999</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16">
-        <f>AVERAGE(B3:B62)</f>
-        <v>0.42122033898305072</v>
+        <v>5</v>
+      </c>
+      <c r="F3" s="14">
+        <f>AVERAGE(B2:B62)</f>
+        <v>0.42116666666666658</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>0.42599999999999999</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="17">
-        <f>_xlfn.STDEV.P(B3:B62)</f>
-        <v>4.9164814365152461E-3</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="16">
+        <f>_xlfn.STDEV.P(B2:B62)</f>
+        <v>4.8927383834504118E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>0.439</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" s="18">
         <f>F4/SQRT(60)</f>
-        <v>6.3471502418538221E-4</v>
+        <v>6.3164980921510809E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>0.434</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>9.7878989999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>0.436</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9">
-        <v>9.7878989999999995</v>
-      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>0.41399999999999998</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="19">
-        <f>C3/F3*F3</f>
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>0.42099999999999999</v>
       </c>
     </row>
@@ -1263,7 +1439,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>0.42499999999999999</v>
       </c>
     </row>
@@ -1271,7 +1447,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>0.41499999999999998</v>
       </c>
     </row>
@@ -1279,7 +1455,7 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>0.42399999999999999</v>
       </c>
     </row>
@@ -1287,7 +1463,7 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>0.41399999999999998</v>
       </c>
     </row>
@@ -1295,7 +1471,7 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>0.41799999999999998</v>
       </c>
     </row>
@@ -1303,7 +1479,7 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>0.42299999999999999</v>
       </c>
     </row>
@@ -1311,7 +1487,7 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -1319,7 +1495,7 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>0.42299999999999999</v>
       </c>
     </row>
@@ -1327,7 +1503,7 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>0.42299999999999999</v>
       </c>
     </row>
@@ -1335,7 +1511,7 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>0.41799999999999998</v>
       </c>
     </row>
@@ -1343,7 +1519,7 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>0.42299999999999999</v>
       </c>
     </row>
@@ -1351,7 +1527,7 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>0.41599999999999998</v>
       </c>
     </row>
@@ -1359,7 +1535,7 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>0.41699999999999998</v>
       </c>
     </row>
@@ -1367,7 +1543,7 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>0.42099999999999999</v>
       </c>
     </row>
@@ -1375,7 +1551,7 @@
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>0.41699999999999998</v>
       </c>
     </row>
@@ -1383,7 +1559,7 @@
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>0.41299999999999998</v>
       </c>
     </row>
@@ -1391,7 +1567,7 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>0.41599999999999998</v>
       </c>
     </row>
@@ -1399,7 +1575,7 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>0.42099999999999999</v>
       </c>
     </row>
@@ -1415,7 +1591,7 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>0.41599999999999998</v>
       </c>
     </row>
@@ -1423,7 +1599,7 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -1431,7 +1607,7 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>0.42</v>
       </c>
     </row>
@@ -1439,7 +1615,7 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>0.42699999999999999</v>
       </c>
     </row>
@@ -1455,7 +1631,7 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -1463,7 +1639,7 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -1471,7 +1647,7 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>0.42099999999999999</v>
       </c>
     </row>
@@ -1487,7 +1663,7 @@
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <v>0.41799999999999998</v>
       </c>
     </row>
@@ -1503,7 +1679,7 @@
       <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="14">
         <v>0.42099999999999999</v>
       </c>
     </row>
@@ -1511,7 +1687,7 @@
       <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <v>0.42099999999999999</v>
       </c>
     </row>
@@ -1519,7 +1695,7 @@
       <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -1527,7 +1703,7 @@
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -1535,7 +1711,7 @@
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>0.42299999999999999</v>
       </c>
     </row>
@@ -1551,7 +1727,7 @@
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="14">
         <v>0.42699999999999999</v>
       </c>
     </row>
@@ -1559,7 +1735,7 @@
       <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="14">
         <v>0.42299999999999999</v>
       </c>
     </row>
@@ -1567,7 +1743,7 @@
       <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="14">
         <v>0.41799999999999998</v>
       </c>
     </row>
@@ -1575,7 +1751,7 @@
       <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="14">
         <v>0.42699999999999999</v>
       </c>
     </row>
@@ -1583,7 +1759,7 @@
       <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -1591,7 +1767,7 @@
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -1599,7 +1775,7 @@
       <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <v>0.42099999999999999</v>
       </c>
     </row>
@@ -1607,7 +1783,7 @@
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>0.41599999999999998</v>
       </c>
     </row>
@@ -1615,7 +1791,7 @@
       <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>0.42399999999999999</v>
       </c>
     </row>
@@ -1623,7 +1799,7 @@
       <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>0.42099999999999999</v>
       </c>
     </row>
@@ -1631,7 +1807,7 @@
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <v>0.41299999999999998</v>
       </c>
     </row>
@@ -1639,7 +1815,7 @@
       <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <v>0.41899999999999998</v>
       </c>
     </row>
@@ -1647,7 +1823,7 @@
       <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="14">
         <v>0.41799999999999998</v>
       </c>
     </row>
@@ -1655,7 +1831,7 @@
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="14">
         <v>0.42199999999999999</v>
       </c>
     </row>
@@ -1663,7 +1839,7 @@
       <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="14">
         <v>0.41499999999999998</v>
       </c>
     </row>
@@ -1671,7 +1847,7 @@
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>0.42599999999999999</v>
       </c>
     </row>
